--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -639,8 +639,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -838,12 +838,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mateja</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Škorić</t>
+          <t>Atkinson</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -944,12 +944,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pofuk</t>
+          <t>Chandler</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -1050,12 +1050,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patrik</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maloić</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -1156,12 +1156,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Peša</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -1262,12 +1262,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nemeth</t>
+          <t>Cochran</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1368,12 +1368,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Darrell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plazanić</t>
+          <t>Waller</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1474,12 +1474,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grbanović</t>
+          <t>Pierce</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -1580,12 +1580,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tino</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Varjačić</t>
+          <t>Dominguez</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1686,12 +1686,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marinko</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jendrašić</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1792,12 +1792,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Posavec</t>
+          <t>Cruz</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1898,12 +1898,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lucija</t>
+          <t>Ricardo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Petkoviček</t>
+          <t>Zavala</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -2004,12 +2004,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lea</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baličević</t>
+          <t>Shaffer</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -2110,12 +2110,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sović</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -2216,12 +2216,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tea</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Posilović</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -2322,12 +2322,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mišić</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2428,12 +2428,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iva</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vertuš</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -2534,12 +2534,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Patricija</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Antekolović</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -2640,12 +2640,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dominik</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Miroić</t>
+          <t>Nolan</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -2746,12 +2746,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dreven</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -2852,12 +2852,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Randy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kružičević</t>
+          <t>Powers</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -2958,12 +2958,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mrazek</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -3064,12 +3064,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Laurie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Štih</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -3170,12 +3170,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Klauda</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -3276,12 +3276,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Damjan</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rukavina</t>
+          <t>Cortez</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -3382,12 +3382,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tomičić</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -3488,12 +3488,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Obilinović</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -3594,12 +3594,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tin</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ipša</t>
+          <t>Mueller</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -3700,12 +3700,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Valentina</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Luk</t>
+          <t>Montoya</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -3806,12 +3806,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lucija</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Poljak</t>
+          <t>Obrien</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -3912,12 +3912,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Stručić</t>
+          <t>Wagner</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -4018,12 +4018,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kristijan</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Marićak</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -4124,12 +4124,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Zidna</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Užarević</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -4230,12 +4230,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bubalo</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -4336,12 +4336,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lea Maria</t>
+          <t>Stephanie Patricia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strinavić</t>
+          <t>Salazar</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -4442,12 +4442,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bezi</t>
+          <t>Herrera</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -4548,12 +4548,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Šušnjara</t>
+          <t>Boyd</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -4654,12 +4654,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fran</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Deša</t>
+          <t>Herrera</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -4760,12 +4760,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Veronika</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Križanec</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -4866,12 +4866,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Darijo</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Čvek</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -4972,12 +4972,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Daria</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Maslić</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -5078,12 +5078,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lesar</t>
+          <t>Bass</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -5184,12 +5184,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Karlo</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bago</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -5290,12 +5290,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Šostarec</t>
+          <t>Potter</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -5396,12 +5396,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nemet</t>
+          <t>Pham</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -5502,12 +5502,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mateo</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Petrović</t>
+          <t>Crosby</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -5608,12 +5608,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Monika</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Roksandić</t>
+          <t>Beck</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -5714,12 +5714,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dino</t>
+          <t>Theresa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mujanović</t>
+          <t>Cochran</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -5820,12 +5820,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lucija</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cindrić</t>
+          <t>Foster</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -5926,12 +5926,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jedvaj</t>
+          <t>Hensley</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -6032,12 +6032,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sambolek</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -6138,12 +6138,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nikolina</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hrgota</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -6244,12 +6244,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Petra</t>
+          <t>Reginald</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Crnički</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -6350,12 +6350,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Danijel</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sambolec</t>
+          <t>Turner</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -6456,12 +6456,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nemanja</t>
+          <t>Helen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Banek</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -6562,12 +6562,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nikolina</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Buhovac</t>
+          <t>Parsons</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -6668,12 +6668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Češnjaj</t>
+          <t>Hahn</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -6774,12 +6774,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Marija</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ferenđa</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -6880,12 +6880,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Jeanne</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pošta</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -6986,12 +6986,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kelemen</t>
+          <t>Novak</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -7092,12 +7092,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adžaga</t>
+          <t>Mcclain</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -7198,12 +7198,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Klara</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Švaco</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -7304,12 +7304,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nikolina</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Škalić</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -7410,12 +7410,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Eugen</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Horvat</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -7516,12 +7516,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Simić</t>
+          <t>Chambers</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -7622,12 +7622,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mandekić</t>
+          <t>Walters</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -7728,12 +7728,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Vedran</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Vranešić</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -7834,12 +7834,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dario</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dekanić</t>
+          <t>Le</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -7940,12 +7940,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Andreja</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Radoš</t>
+          <t>Harmon</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -8046,12 +8046,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Žganec</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -8152,12 +8152,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mateja</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mašić</t>
+          <t>Figueroa</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -8258,12 +8258,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Klara</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Colle</t>
+          <t>Hurst</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -8364,12 +8364,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rouf</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -8470,12 +8470,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Bethany</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Šaša</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -8576,12 +8576,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Danijel</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Juršić</t>
+          <t>Pierce</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -8682,12 +8682,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Elena Luna</t>
+          <t>Joshua Cynthia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Blažević</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -8788,12 +8788,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mihael</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Klarić</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -8894,12 +8894,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Petra</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Matijašić</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -9000,12 +9000,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mateja</t>
+          <t>Rita</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dujmušić</t>
+          <t>Harrell</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -9106,12 +9106,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Čurdija</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -9212,12 +9212,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Antonia</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lovrek</t>
+          <t>Valdez</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -9318,12 +9318,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Josip</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Šatrak</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -9424,12 +9424,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Domagoj</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vuković</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -9530,12 +9530,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mirta</t>
+          <t>Brent</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sraga</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -9636,12 +9636,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dino</t>
+          <t>Selena</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Imbrihalec</t>
+          <t>Duncan</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -9742,12 +9742,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bistrović</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -9848,12 +9848,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ćutuk</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -9954,12 +9954,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lovro</t>
+          <t>Kellie</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Maruševec</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -10060,12 +10060,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Vito</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Franović</t>
+          <t>Hickman</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -10166,12 +10166,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Petra</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Miškulin</t>
+          <t>Deleon</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -10272,12 +10272,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Magdalenić</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -10378,12 +10378,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kožuh</t>
+          <t>Wheeler</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -10484,12 +10484,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jačmenjak</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -10590,12 +10590,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dominik</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kolarić</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -10696,12 +10696,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Darrell</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Majcug</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -10802,12 +10802,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>Brandi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Milanović</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -10908,12 +10908,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Horvat</t>
+          <t>Welch</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -11014,12 +11014,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Matea</t>
+          <t>Veronica</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Brleković</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -11120,12 +11120,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zović</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -11226,12 +11226,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Krunić</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -11332,12 +11332,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sopić</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -11438,12 +11438,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dajana</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Belina</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -11544,12 +11544,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Anamarija</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kovačić</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -11650,12 +11650,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jurenec</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -11756,12 +11756,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Daria</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Zadravec</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -11862,12 +11862,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Vašarević</t>
+          <t>Cannon</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -11968,12 +11968,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dora</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cafuk</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -12074,12 +12074,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oletić</t>
+          <t>Stevens</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -12180,12 +12180,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Doroteja</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Bijele</t>
+          <t>Calderon</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -12286,12 +12286,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Andrija</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fridrih</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -12392,12 +12392,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Domislović</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -12498,12 +12498,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Klarić</t>
+          <t>Gibson</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -12604,12 +12604,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Antonić</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -12710,12 +12710,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Emerik</t>
+          <t>Breanna</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kolman</t>
+          <t>Shaw</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -12816,12 +12816,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ante</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Škugor</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -12922,12 +12922,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lovro</t>
+          <t>Lindsey</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ivanda</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -13028,12 +13028,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ladić</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -13134,12 +13134,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Nensi</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Vujica</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -13240,12 +13240,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Zvonimir</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pacur</t>
+          <t>Murphy</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -13346,12 +13346,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Dundov</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -13452,12 +13452,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Špoljar</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -13558,12 +13558,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Habijanac</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -13664,12 +13664,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Vidović</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -13770,12 +13770,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Emanuel</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Brlek</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -13876,12 +13876,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kristina</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Margarin</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -13982,12 +13982,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Matija</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Špajgl</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -14088,12 +14088,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Josip</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Anić</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -14194,12 +14194,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ivana</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tomašković</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -14300,12 +14300,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Karlo</t>
+          <t>Phillip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Zagorec</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -14406,12 +14406,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Matej</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tariša</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -14512,12 +14512,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mudri</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -14618,12 +14618,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Rudolf</t>
+          <t>Tasha</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jokić</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -14724,12 +14724,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Šalaj</t>
+          <t>Bentley</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -14830,12 +14830,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Josip</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Knežević</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -14936,12 +14936,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Branko</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Besten</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -15042,12 +15042,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Domagoj</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Koren</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -15148,12 +15148,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mihael</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kopjar</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -15254,12 +15254,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Antunac</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -15360,12 +15360,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Šušnjak</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -15466,12 +15466,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sabina</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Težak</t>
+          <t>Benson</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -15572,12 +15572,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dobrica</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -15678,12 +15678,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lana</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Jurković</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -15784,12 +15784,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Karlo</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kumrić</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -15890,12 +15890,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Račan</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -15996,12 +15996,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Vinter</t>
+          <t>Morrison</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -16102,12 +16102,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Vujević</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -16208,12 +16208,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dumić</t>
+          <t>Fowler</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -16314,12 +16314,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Vito</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Horvat</t>
+          <t>Whitehead</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -16420,12 +16420,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dominik</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Valić</t>
+          <t>Stein</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -16526,12 +16526,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Klara</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Huđ</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -16632,12 +16632,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fabijan</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ribić</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -16738,12 +16738,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lovro</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bilić</t>
+          <t>Hensley</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -16844,12 +16844,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Borna</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Margotić</t>
+          <t>Mathis</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -16950,12 +16950,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Krivokapić</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -17056,12 +17056,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Dominik</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Munjeković</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -17162,12 +17162,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dorian</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Leček</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -17268,12 +17268,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Wanda</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hadžić</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -17374,12 +17374,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Shane</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jergan</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -17480,12 +17480,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Kovačić</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -17586,12 +17586,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bičak</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -17692,12 +17692,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Bogomolec</t>
+          <t>Zuniga</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -17798,12 +17798,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bišćan</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -17904,12 +17904,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mateo</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fekete</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -18010,12 +18010,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Čukman</t>
+          <t>Hicks</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -18116,12 +18116,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ema</t>
+          <t>Gene</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Šerer</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -18222,12 +18222,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Tomislav</t>
+          <t>Beth</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kobeščak</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -18328,12 +18328,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Karlo</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Čivčija</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -18434,12 +18434,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Borna</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Slukić</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -18540,12 +18540,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Leonarda</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Šajnović</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -18646,12 +18646,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lazar</t>
+          <t>Ibarra</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -18752,12 +18752,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Mateo</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Biškup</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -18858,12 +18858,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Raphaël</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Jajtić</t>
+          <t>Owens</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -18964,12 +18964,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Emilia</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Domić</t>
+          <t>Mckay</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -19070,12 +19070,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Noa</t>
+          <t>Jill</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mužina</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -19176,12 +19176,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lana</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Milić</t>
+          <t>Flynn</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -19282,12 +19282,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Vugrinec</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -19388,12 +19388,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Krajnik</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -19494,12 +19494,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Vlatka</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kundih</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -19600,12 +19600,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Nika</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vesel</t>
+          <t>Molina</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -19706,12 +19706,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Stojaković</t>
+          <t>Larson</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -19812,12 +19812,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Martina</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pecikozić</t>
+          <t>Rasmussen</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -19918,12 +19918,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Caldwell</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -20024,12 +20024,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Matej</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Svetlečić</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -20130,12 +20130,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bernik</t>
+          <t>Abbott</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -20236,12 +20236,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Iva Lorena</t>
+          <t>Danielle Angel</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Adlašić</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -20342,12 +20342,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vili</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sever</t>
+          <t>Cardenas</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -20448,12 +20448,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Adela</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vincek</t>
+          <t>Adkins</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -20554,12 +20554,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kvesić</t>
+          <t>Murillo</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -20660,12 +20660,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Filip</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Klanjec</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -20766,12 +20766,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Margareta</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Hehet</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -20872,12 +20872,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Dario</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Senjanec</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -20978,12 +20978,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lucija</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Mergon</t>
+          <t>Mckee</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -21084,12 +21084,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Josip</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Čobanović</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -21190,12 +21190,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Karlo</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hachemaoui</t>
+          <t>Blair</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -21296,12 +21296,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Dino</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ciberlin</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -21402,12 +21402,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Rušak</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -21508,12 +21508,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Josip</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sandalj</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -21614,12 +21614,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Brent</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Katunić</t>
+          <t>Kidd</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -21720,12 +21720,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Emina</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kostanjevec</t>
+          <t>Larson</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -21826,12 +21826,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Dobrić</t>
+          <t>Davidson</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -21932,12 +21932,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Lana</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Luketić</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -22038,12 +22038,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Domagoj</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mikulec</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -22144,12 +22144,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Matea</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Klarić</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -22250,12 +22250,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pleša</t>
+          <t>Estes</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -22356,12 +22356,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Veno</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fučec</t>
+          <t>Arroyo</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -22462,12 +22462,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Klement</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -22568,12 +22568,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mateo</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gašparović</t>
+          <t>Hodges</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -22674,12 +22674,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ema</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Bunić</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -22780,12 +22780,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Pleša</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -22886,12 +22886,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Sofija</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Breški</t>
+          <t>Lynch</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -22992,12 +22992,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Brezovečki</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -23098,12 +23098,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Yelysei</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Habek</t>
+          <t>Brennan</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -23204,12 +23204,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Corey</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Janđel</t>
+          <t>Powell</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -23310,12 +23310,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Đakiv</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -23416,12 +23416,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Bakšaj</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -23522,12 +23522,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Stjepan</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Gegić</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -23628,12 +23628,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Nika</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Knezović</t>
+          <t>Novak</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -23734,12 +23734,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Paola</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sučić</t>
+          <t>Kelley</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -23840,12 +23840,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Fric</t>
+          <t>Decker</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -23946,12 +23946,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tin</t>
+          <t>Jade</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lončar</t>
+          <t>Carr</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -24052,12 +24052,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Vedran</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Setinšek</t>
+          <t>Schultz</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -24158,12 +24158,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Lorenzo</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bočkaj</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -24264,12 +24264,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jakov</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hadrović</t>
+          <t>Collins</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -24370,12 +24370,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Hrvoje</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bilinovac</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -24476,12 +24476,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Salopek</t>
+          <t>Orr</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -24582,12 +24582,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Emil</t>
+          <t>Melinda</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Štefičar</t>
+          <t>Bryant</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -24688,12 +24688,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Šimun</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dautbašić</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -24794,12 +24794,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kišiček</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -24900,12 +24900,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Franjo</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Novak</t>
+          <t>Brennan</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -25006,12 +25006,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Petar</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Malvić</t>
+          <t>Robbins</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -25112,12 +25112,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ovčarić</t>
+          <t>Pope</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -25218,12 +25218,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Kaja</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Matulin</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -25324,12 +25324,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Karolina</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Lacić</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -25430,12 +25430,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Galinec</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -25536,12 +25536,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Noa</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Hip</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -25642,12 +25642,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Marko Mile</t>
+          <t>Jessica Emily</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jalžabetić</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -25748,12 +25748,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Anamarija</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Horvat</t>
+          <t>Chapman</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -25854,12 +25854,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Barišić</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -25960,12 +25960,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Marija</t>
+          <t>Phyllis</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Šumak</t>
+          <t>Manning</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -26066,12 +26066,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Matija</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Šuput</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -26172,12 +26172,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Petra</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dušak</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -26278,12 +26278,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Margareta</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Adrović</t>
+          <t>Doyle</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -26384,12 +26384,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Lovro</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Kelić</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -26490,12 +26490,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Marino</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Cirkvenčić</t>
+          <t>Ellis</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -26596,12 +26596,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Monika</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Mudronja</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -26702,12 +26702,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Dorian</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Novak</t>
+          <t>Cobb</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -26808,12 +26808,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Šimudvarac</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -26914,12 +26914,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Matej</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sokač</t>
+          <t>Snyder</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -27020,12 +27020,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Anja</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Šafer</t>
+          <t>Powell</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -27126,12 +27126,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Dora</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Švenda</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
